--- a/cfg/robots0.xlsx
+++ b/cfg/robots0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8DB6720F-C2EB-48A8-8FB9-F078C59D424A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1DB731F9-5556-4795-A12D-9A44157339A5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Uid</t>
   </si>
@@ -34,172 +34,219 @@
     <t>Password</t>
   </si>
   <si>
+    <t>TencentToken</t>
+  </si>
+  <si>
+    <t>IsNeedAutoLogin</t>
+  </si>
+  <si>
+    <t>AppointRoomId</t>
+  </si>
+  <si>
+    <t>TaskCount</t>
+  </si>
+  <si>
+    <t>TaskId1</t>
+  </si>
+  <si>
+    <t>TaskId2</t>
+  </si>
+  <si>
+    <t>TaskId3</t>
+  </si>
+  <si>
+    <t>TaskId4</t>
+  </si>
+  <si>
+    <t>TaskId5</t>
+  </si>
+  <si>
+    <t>TaskId6</t>
+  </si>
+  <si>
+    <t>TaskId7</t>
+  </si>
+  <si>
+    <t>TaskId8</t>
+  </si>
+  <si>
+    <t>TaskId9</t>
+  </si>
+  <si>
+    <t>TaskId10</t>
+  </si>
+  <si>
+    <t>TaskId11</t>
+  </si>
+  <si>
+    <t>TaskId12</t>
+  </si>
+  <si>
+    <t>TaskId13</t>
+  </si>
+  <si>
+    <t>TaskId14</t>
+  </si>
+  <si>
+    <t>TaskId15</t>
+  </si>
+  <si>
+    <t>TaskId16</t>
+  </si>
+  <si>
+    <t>TaskId17</t>
+  </si>
+  <si>
+    <t>TaskId18</t>
+  </si>
+  <si>
+    <t>TaskId19</t>
+  </si>
+  <si>
+    <t>TaskId20</t>
+  </si>
+  <si>
+    <t>TaskId21</t>
+  </si>
+  <si>
+    <t>TaskId22</t>
+  </si>
+  <si>
+    <t>TaskId23</t>
+  </si>
+  <si>
+    <t>TaskId24</t>
+  </si>
+  <si>
+    <t>TaskId25</t>
+  </si>
+  <si>
+    <t>TaskId26</t>
+  </si>
+  <si>
+    <t>TaskId27</t>
+  </si>
+  <si>
+    <t>TaskId28</t>
+  </si>
+  <si>
+    <t>TaskId29</t>
+  </si>
+  <si>
+    <t>TaskId30</t>
+  </si>
+  <si>
+    <t>TaskId31</t>
+  </si>
+  <si>
+    <t>TaskId32</t>
+  </si>
+  <si>
+    <t>TaskId33</t>
+  </si>
+  <si>
+    <t>TaskId34</t>
+  </si>
+  <si>
+    <t>TaskId35</t>
+  </si>
+  <si>
+    <t>TaskId36</t>
+  </si>
+  <si>
+    <t>TaskId37</t>
+  </si>
+  <si>
+    <t>TaskId38</t>
+  </si>
+  <si>
+    <t>TaskId39</t>
+  </si>
+  <si>
+    <t>TaskId40</t>
+  </si>
+  <si>
+    <t>TaskId41</t>
+  </si>
+  <si>
+    <t>TaskId42</t>
+  </si>
+  <si>
+    <t>TaskId43</t>
+  </si>
+  <si>
+    <t>TaskId44</t>
+  </si>
+  <si>
+    <t>TaskId45</t>
+  </si>
+  <si>
+    <t>TaskId46</t>
+  </si>
+  <si>
+    <t>TaskId47</t>
+  </si>
+  <si>
+    <t>TaskId48</t>
+  </si>
+  <si>
+    <t>TaskId49</t>
+  </si>
+  <si>
+    <t>TaskId50</t>
+  </si>
+  <si>
+    <t>001crio82nYQgE0xMCp829cko82crio1</t>
+  </si>
+  <si>
+    <t>lll000001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientIp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packageflag</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>001crio82nYQgE0xMCp829cko82crio1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev001crio82nYQgE0xMCp829cko82crio10000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>QPB_WEB_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.157.129</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>TencentCodeId</t>
-  </si>
-  <si>
-    <t>TencentToken</t>
-  </si>
-  <si>
-    <t>IsNeedAutoLogin</t>
-  </si>
-  <si>
-    <t>AppointRoomId</t>
-  </si>
-  <si>
-    <t>TaskCount</t>
-  </si>
-  <si>
-    <t>TaskId1</t>
-  </si>
-  <si>
-    <t>TaskId2</t>
-  </si>
-  <si>
-    <t>TaskId3</t>
-  </si>
-  <si>
-    <t>TaskId4</t>
-  </si>
-  <si>
-    <t>TaskId5</t>
-  </si>
-  <si>
-    <t>TaskId6</t>
-  </si>
-  <si>
-    <t>TaskId7</t>
-  </si>
-  <si>
-    <t>TaskId8</t>
-  </si>
-  <si>
-    <t>TaskId9</t>
-  </si>
-  <si>
-    <t>TaskId10</t>
-  </si>
-  <si>
-    <t>TaskId11</t>
-  </si>
-  <si>
-    <t>TaskId12</t>
-  </si>
-  <si>
-    <t>TaskId13</t>
-  </si>
-  <si>
-    <t>TaskId14</t>
-  </si>
-  <si>
-    <t>TaskId15</t>
-  </si>
-  <si>
-    <t>TaskId16</t>
-  </si>
-  <si>
-    <t>TaskId17</t>
-  </si>
-  <si>
-    <t>TaskId18</t>
-  </si>
-  <si>
-    <t>TaskId19</t>
-  </si>
-  <si>
-    <t>TaskId20</t>
-  </si>
-  <si>
-    <t>TaskId21</t>
-  </si>
-  <si>
-    <t>TaskId22</t>
-  </si>
-  <si>
-    <t>TaskId23</t>
-  </si>
-  <si>
-    <t>TaskId24</t>
-  </si>
-  <si>
-    <t>TaskId25</t>
-  </si>
-  <si>
-    <t>TaskId26</t>
-  </si>
-  <si>
-    <t>TaskId27</t>
-  </si>
-  <si>
-    <t>TaskId28</t>
-  </si>
-  <si>
-    <t>TaskId29</t>
-  </si>
-  <si>
-    <t>TaskId30</t>
-  </si>
-  <si>
-    <t>TaskId31</t>
-  </si>
-  <si>
-    <t>TaskId32</t>
-  </si>
-  <si>
-    <t>TaskId33</t>
-  </si>
-  <si>
-    <t>TaskId34</t>
-  </si>
-  <si>
-    <t>TaskId35</t>
-  </si>
-  <si>
-    <t>TaskId36</t>
-  </si>
-  <si>
-    <t>TaskId37</t>
-  </si>
-  <si>
-    <t>TaskId38</t>
-  </si>
-  <si>
-    <t>TaskId39</t>
-  </si>
-  <si>
-    <t>TaskId40</t>
-  </si>
-  <si>
-    <t>TaskId41</t>
-  </si>
-  <si>
-    <t>TaskId42</t>
-  </si>
-  <si>
-    <t>TaskId43</t>
-  </si>
-  <si>
-    <t>TaskId44</t>
-  </si>
-  <si>
-    <t>TaskId45</t>
-  </si>
-  <si>
-    <t>TaskId46</t>
-  </si>
-  <si>
-    <t>TaskId47</t>
-  </si>
-  <si>
-    <t>TaskId48</t>
-  </si>
-  <si>
-    <t>TaskId49</t>
-  </si>
-  <si>
-    <t>TaskId50</t>
-  </si>
-  <si>
-    <t>001crio82nYQgE0xMCp829cko82crio1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lll000002</t>
+  </si>
+  <si>
+    <t>dev001crio82nYQgE0xMCp829cko82crio10001</t>
+  </si>
+  <si>
+    <t>QPB_WEB_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.157.129</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>001crio82nYQgE0xMCp829cko82crio2</t>
@@ -1154,19 +1201,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG3"/>
+  <dimension ref="A1:BJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
-    <col min="4" max="4" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="28.125" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1180,214 +1232,223 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AQ1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AR1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AS1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BD1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BE1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BF1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BG1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BH1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BI1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BJ1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1000001</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>10000000001</v>
+      <c r="C2" t="s">
+        <v>59</v>
       </c>
       <c r="D2">
         <v>123456</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>900001</v>
       </c>
-      <c r="I2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>2</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
       <c r="O2">
         <v>1</v>
       </c>
@@ -1523,50 +1584,59 @@
       <c r="BG2">
         <v>1</v>
       </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1000002</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>10000000002</v>
+      <c r="C3" t="s">
+        <v>68</v>
       </c>
       <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>900002</v>
-      </c>
-      <c r="I3">
+      <c r="K3">
+        <v>900001</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
       <c r="O3">
         <v>1</v>
       </c>
@@ -1700,11 +1770,21 @@
         <v>1</v>
       </c>
       <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cfg/robots0.xlsx
+++ b/cfg/robots0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1DB731F9-5556-4795-A12D-9A44157339A5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20BBE41D-0BCD-491E-A89E-3CB4B9A59721}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Uid</t>
   </si>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>001crio82nYQgE0xMCp829cko82crio2</t>
+  </si>
+  <si>
+    <t>ClubId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1201,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ3"/>
+  <dimension ref="A1:BK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1216,9 +1220,10 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="28.125" customWidth="1"/>
     <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1250,163 +1255,166 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>44</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>46</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>47</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>48</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>49</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>50</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>51</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>52</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>54</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>55</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>56</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1000001</v>
       </c>
@@ -1438,20 +1446,20 @@
         <v>0</v>
       </c>
       <c r="K2">
+        <v>8000001</v>
+      </c>
+      <c r="L2">
         <v>900001</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
       <c r="P2">
         <v>1</v>
       </c>
@@ -1593,8 +1601,11 @@
       <c r="BJ2">
         <v>1</v>
       </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1000002</v>
       </c>
@@ -1626,20 +1637,20 @@
         <v>0</v>
       </c>
       <c r="K3">
+        <v>8000002</v>
+      </c>
+      <c r="L3">
         <v>900001</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
       <c r="P3">
         <v>1</v>
       </c>
@@ -1779,6 +1790,9 @@
         <v>1</v>
       </c>
       <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
         <v>1</v>
       </c>
     </row>

--- a/cfg/robots0.xlsx
+++ b/cfg/robots0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t xml:space="preserve">Uid</t>
   </si>
@@ -61,7 +61,10 @@
     <t xml:space="preserve">XzmjTableId</t>
   </si>
   <si>
-    <t xml:space="preserve">TaskCount</t>
+    <t xml:space="preserve">DdzRoomId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DdzTableId</t>
   </si>
   <si>
     <t xml:space="preserve">TaskId1</t>
@@ -333,10 +336,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL3"/>
+  <dimension ref="A1:BM3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -350,10 +353,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,6 +554,9 @@
       <c r="BL1" s="0" t="s">
         <v>63</v>
       </c>
+      <c r="BM1" s="0" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -558,25 +566,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -588,23 +596,23 @@
         <v>5201</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>1000001</v>
+        <v>5200001</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>3</v>
+        <v>8901</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>1</v>
+        <v>8900001</v>
       </c>
       <c r="P2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="R2" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="S2" s="0" t="n">
         <v>1</v>
       </c>
@@ -741,6 +749,9 @@
         <v>1</v>
       </c>
       <c r="BL2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -752,25 +763,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -782,23 +793,23 @@
         <v>5201</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1000002</v>
+        <v>5200002</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>3</v>
+        <v>8901</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>1</v>
+        <v>8900002</v>
       </c>
       <c r="P3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="R3" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="S3" s="0" t="n">
         <v>1</v>
       </c>
@@ -935,6 +946,9 @@
         <v>1</v>
       </c>
       <c r="BL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/cfg/robots0.xlsx
+++ b/cfg/robots0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t xml:space="preserve">Uid</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">DdzTableId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TaskCount</t>
   </si>
   <si>
     <t xml:space="preserve">TaskId1</t>
@@ -336,10 +339,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BM3"/>
+  <dimension ref="A1:BN3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
+      <selection pane="topLeft" activeCell="S10" activeCellId="0" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -354,11 +357,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,6 +561,9 @@
       <c r="BM1" s="0" t="s">
         <v>64</v>
       </c>
+      <c r="BN1" s="0" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -566,25 +573,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -605,16 +612,16 @@
         <v>8900001</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="R2" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="S2" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>1</v>
@@ -752,6 +759,9 @@
         <v>1</v>
       </c>
       <c r="BM2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,25 +773,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -802,16 +812,16 @@
         <v>8900002</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="R3" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="S3" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>1</v>
@@ -949,6 +959,9 @@
         <v>1</v>
       </c>
       <c r="BM3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/cfg/robots0.xlsx
+++ b/cfg/robots0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">Uid</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">lll000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
   </si>
 </sst>
 </file>
@@ -415,17 +412,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -521,10 +514,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -878,11 +871,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G24" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/cfg/robots0.xlsx
+++ b/cfg/robots0.xlsx
@@ -190,7 +190,7 @@
     <t xml:space="preserve">TaskId50</t>
   </si>
   <si>
-    <t xml:space="preserve">lll000001</t>
+    <t xml:space="preserve">0814GDFa1sZ9Vz0ZUyIa1DGs4h04GDF0</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -718,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>1</v>

--- a/cfg/robots0.xlsx
+++ b/cfg/robots0.xlsx
@@ -517,7 +517,7 @@
   <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -712,10 +712,10 @@
         <v>123456</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1000</v>
+        <v>373</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>1</v>

--- a/cfg/robots0.xlsx
+++ b/cfg/robots0.xlsx
@@ -200,12 +200,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="文泉驿点阵正黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -224,98 +225,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="文泉驿点阵正黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF808080"/>
-      <name val="文泉驿点阵正黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006600"/>
-      <name val="文泉驿点阵正黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF996600"/>
-      <name val="文泉驿点阵正黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCC0000"/>
-      <name val="文泉驿点阵正黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="文泉驿点阵正黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -323,23 +247,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -363,149 +272,25 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -516,15 +301,15 @@
   </sheetPr>
   <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM32" activeCellId="0" sqref="AM32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.14"/>

--- a/cfg/robots0.xlsx
+++ b/cfg/robots0.xlsx
@@ -301,8 +301,8 @@
   </sheetPr>
   <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM32" activeCellId="0" sqref="AM32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -503,13 +503,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>1</v>

--- a/cfg/robots0.xlsx
+++ b/cfg/robots0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">Uid</t>
   </si>
@@ -190,7 +190,10 @@
     <t xml:space="preserve">TaskId50</t>
   </si>
   <si>
-    <t xml:space="preserve">0814GDFa1sZ9Vz0ZUyIa1DGs4h04GDF0</t>
+    <t xml:space="preserve">061UUQkl2aUmX54U28nl2bNMlZ0UUQkA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test1000002</t>
   </si>
 </sst>
 </file>
@@ -299,16 +302,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.86"/>
@@ -497,7 +500,7 @@
         <v>123456</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -653,6 +656,176 @@
         <v>1</v>
       </c>
       <c r="BD2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1000002</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
